--- a/Golden standard/NDS.xlsx
+++ b/Golden standard/NDS.xlsx
@@ -239,7 +239,7 @@
     <t xml:space="preserve"> и вот смотрели</t>
   </si>
   <si>
-    <t xml:space="preserve"> они были  такие си | се  красивые-красивые</t>
+    <t xml:space="preserve"> они были  такие си  се  красивые-красивые</t>
   </si>
   <si>
     <t xml:space="preserve"> и были све́тло- ээ синенькие.</t>
@@ -302,7 +302,7 @@
     <t>ээ потом я её остановил.</t>
   </si>
   <si>
-    <t xml:space="preserve">  И я-а с неё слез</t>
+    <t xml:space="preserve">  И я с неё слез</t>
   </si>
   <si>
     <t xml:space="preserve"> и пошёл внутрь.</t>
@@ -347,10 +347,10 @@
     <t>а  а там  машины не было</t>
   </si>
   <si>
-    <t xml:space="preserve"> и я пошё-ол дальше искать машину.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Вдруг  я-а увидел милиционера</t>
+    <t xml:space="preserve"> и я пошёл дальше искать машину.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вдруг  я увидел милиционера</t>
   </si>
   <si>
     <t>и спросил у него:</t>
@@ -377,7 +377,7 @@
     <t>NDS_007-m-z.eaf</t>
   </si>
   <si>
-    <t xml:space="preserve">И я-а </t>
+    <t xml:space="preserve">И я </t>
   </si>
   <si>
     <t>ээ    И я шёл  один    по дороге.</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve"> И вдруг я  туда заглянул</t>
   </si>
   <si>
-    <t>а там какой-то   а там какой-то  маленькое | маленькая     маленькое | маленькая   ма   маленький котёнок сидел.</t>
+    <t>а там какой-то   а там какой-то  маленькое  маленькая     маленькое  маленькая   ма   маленький котёнок сидел.</t>
   </si>
   <si>
     <t xml:space="preserve"> И </t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve"> мне тётя  рассказала</t>
   </si>
   <si>
-    <t xml:space="preserve"> укус это  чего-то там надо ~</t>
+    <t xml:space="preserve"> укус это  чего-то там надо </t>
   </si>
   <si>
     <t xml:space="preserve"> и  чего-то  уколы делать...</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve"> кажется</t>
   </si>
   <si>
-    <t xml:space="preserve"> а я её  там это ~</t>
+    <t xml:space="preserve"> а я её  там это </t>
   </si>
   <si>
     <t xml:space="preserve"> потом  господи  какая-то  кошка что ли  её  хотела съесть</t>
@@ -668,7 +668,7 @@
     <t>мы там отделали с дедушкой</t>
   </si>
   <si>
-    <t xml:space="preserve"> это как-то там ~</t>
+    <t xml:space="preserve"> это как-то там </t>
   </si>
   <si>
     <t xml:space="preserve">   Вот</t>
@@ -761,7 +761,7 @@
     <t>младенец</t>
   </si>
   <si>
-    <t xml:space="preserve"> ещё-о  Бог  вышел.</t>
+    <t xml:space="preserve"> ещё  Бог  вышел.</t>
   </si>
   <si>
     <t xml:space="preserve"> И они были  в церкви</t>
@@ -794,7 +794,7 @@
     <t xml:space="preserve"> Такой был сон.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Потом я-а  значит  тоже подошё-ол</t>
+    <t xml:space="preserve"> Потом я  значит  тоже подошёл</t>
   </si>
   <si>
     <t xml:space="preserve"> и подержал его на руках.</t>
@@ -809,7 +809,7 @@
     <t>А ещё у меня был такой сон</t>
   </si>
   <si>
-    <t xml:space="preserve"> ка   ээ  как я поссорился с друзья-ами   ээ с  подружкой</t>
+    <t xml:space="preserve"> ка   ээ  как я поссорился с друзьями   ээ с  подружкой</t>
   </si>
   <si>
     <t xml:space="preserve"> а  вот  ээ с другом не поссорился</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve"> и  думал</t>
   </si>
   <si>
-    <t>что  это иза меня всё.</t>
+    <t>что  это из-за меня всё.</t>
   </si>
   <si>
     <t xml:space="preserve"> Вот.</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve"> и  сказала</t>
   </si>
   <si>
-    <t xml:space="preserve"> что это  не иза мень </t>
+    <t xml:space="preserve"> что это  не из-за мень </t>
   </si>
   <si>
     <t xml:space="preserve"> я ей всё это рассказал</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve"> она сказала</t>
   </si>
   <si>
-    <t>что это не иза меня</t>
+    <t>что это не из-за меня</t>
   </si>
   <si>
     <t>её стукнул  какой-то там мальчишка</t>
@@ -914,7 +914,7 @@
     <t>NDS_014-m-z.eaf</t>
   </si>
   <si>
-    <t>значит ээ  как я-а  иду ээ вот значит  с мамой на рынок</t>
+    <t>значит ээ  как я  иду ээ вот значит  с мамой на рынок</t>
   </si>
   <si>
     <t xml:space="preserve">  на базар</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve"> и </t>
   </si>
   <si>
-    <t xml:space="preserve"> и     и я-а стал её искать по всему рынку</t>
+    <t xml:space="preserve"> и     и я стал её искать по всему рынку</t>
   </si>
   <si>
     <t xml:space="preserve"> а потом  п  хотел идти домой</t>
@@ -968,7 +968,7 @@
     <t>троллейбусов не было</t>
   </si>
   <si>
-    <t xml:space="preserve"> и я-а потом мм  где-т  там  даже не спал</t>
+    <t xml:space="preserve"> и я потом мм  где-т  там  даже не спал</t>
   </si>
   <si>
     <t xml:space="preserve"> и  потом </t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve"> когда утро н   началось</t>
   </si>
   <si>
-    <t xml:space="preserve"> я-а  приехал домой</t>
+    <t xml:space="preserve"> я  приехал домой</t>
   </si>
   <si>
     <t xml:space="preserve"> мм  а мама уже зво  звонила  там в милицию</t>
@@ -995,7 +995,7 @@
     <t>NDS_015-m-z.eaf</t>
   </si>
   <si>
-    <t>У меня-а  такой сон был</t>
+    <t>У меня  такой сон был</t>
   </si>
   <si>
     <t xml:space="preserve"> когда </t>
@@ -1025,10 +1025,10 @@
     <t xml:space="preserve"> эээ значит</t>
   </si>
   <si>
-    <t xml:space="preserve"> потом я-а  ээ значит  уже привык к этому</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> и  ко мне мама   я-а маму подвозил</t>
+    <t xml:space="preserve"> потом я  ээ значит  уже привык к этому</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> и  ко мне мама   я маму подвозил</t>
   </si>
   <si>
     <t>там  мы с мамой на речке купались</t>
@@ -1073,7 +1073,7 @@
     <t>будто мы с мамой поехали в Америку.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Был большой самолё-от.</t>
+    <t xml:space="preserve"> Был большой самолёт.</t>
   </si>
   <si>
     <t xml:space="preserve">   Это был Боинг</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve"> и ещё одну дверь</t>
   </si>
   <si>
-    <t xml:space="preserve">а я-а </t>
+    <t xml:space="preserve">а я </t>
   </si>
   <si>
     <t>я выхожу</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve"> Это был мм  и не плохой и не хороший сон.</t>
   </si>
   <si>
-    <t xml:space="preserve"> На корабле был  жё-олтый парус</t>
+    <t xml:space="preserve"> На корабле был  жёлтый парус</t>
   </si>
   <si>
     <t>на одной стороне</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve"> А где другой карандаш?</t>
   </si>
   <si>
-    <t xml:space="preserve"> эта сторона вся-а  такая:</t>
+    <t xml:space="preserve"> эта сторона вся  такая:</t>
   </si>
   <si>
     <t xml:space="preserve"> коричнево-жёлтая.</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve"> оказался очень высоким!</t>
   </si>
   <si>
-    <t xml:space="preserve"> И я-а падаю падаю падаю</t>
+    <t xml:space="preserve"> И я падаю падаю падаю</t>
   </si>
   <si>
     <t>думаю:</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve"> А потом когда я проснулся</t>
   </si>
   <si>
-    <t>я-а обнаружил</t>
+    <t>я обнаружил</t>
   </si>
   <si>
     <t>что у меня ногу свело.</t>
@@ -1379,10 +1379,10 @@
     <t>Мы с папой едем на машине.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Мы заехали на поля-анку на берё-озовую</t>
-  </si>
-  <si>
-    <t>погуля-али там...</t>
+    <t xml:space="preserve">   Мы заехали на полянку на берёзовую</t>
+  </si>
+  <si>
+    <t>погуляли там...</t>
   </si>
   <si>
     <t xml:space="preserve"> Потом папа случайно  заехал эээ  ну  в какой-то довольно старинный город.</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve"> Мы мм поймали мм нь  не очень большой улов</t>
   </si>
   <si>
-    <t xml:space="preserve"> на другом берегу мы увидели  ещё-о </t>
+    <t xml:space="preserve"> на другом берегу мы увидели  ещё </t>
   </si>
   <si>
     <t xml:space="preserve"> там люди сидели</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve"> чтобы потом похвастаться дома хорошим уловом.</t>
   </si>
   <si>
-    <t xml:space="preserve"> ээ Он пошё-ол</t>
+    <t xml:space="preserve"> ээ Он пошёл</t>
   </si>
   <si>
     <t xml:space="preserve"> ой</t>
   </si>
   <si>
-    <t xml:space="preserve"> я-а уже пошёл куда-то</t>
+    <t xml:space="preserve"> я уже пошёл куда-то</t>
   </si>
   <si>
     <t>я забыл отошёл</t>
@@ -1505,10 +1505,10 @@
     <t>такое большое здание.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Там  ну | новые всякие большие комнаты были</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> и одна | она круглая была.</t>
+    <t xml:space="preserve"> Там  ну  новые всякие большие комнаты были</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> и одна  она круглая была.</t>
   </si>
   <si>
     <t xml:space="preserve"> И высокая.</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve"> Ну   ну как-т </t>
   </si>
   <si>
-    <t>Как бы у меня не получалось | помещалось.</t>
+    <t>Как бы у меня не получалось  помещалось.</t>
   </si>
   <si>
     <t xml:space="preserve"> А потом  этот  я хотел </t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve"> и тут эээ  н  ну на́чался </t>
   </si>
   <si>
-    <t xml:space="preserve"> А я-а  а у меня б  а было открытое окно.</t>
+    <t xml:space="preserve"> А я  а у меня б  а было открытое окно.</t>
   </si>
   <si>
     <t xml:space="preserve"> На́чался сильный ветер.</t>
@@ -1874,13 +1874,13 @@
     <t xml:space="preserve"> А у меня д   ну домашнее задание не было выучено.</t>
   </si>
   <si>
-    <t xml:space="preserve"> И эээ  ээ    ээ  ммм я-а захотел пойти на улицу</t>
+    <t xml:space="preserve"> И эээ  ээ    ээ  ммм я захотел пойти на улицу</t>
   </si>
   <si>
     <t>гулять.</t>
   </si>
   <si>
-    <t xml:space="preserve"> И пошё-ол</t>
+    <t xml:space="preserve"> И пошёл</t>
   </si>
   <si>
     <t xml:space="preserve"> гулял ээ др  много с друзьями</t>
@@ -1913,7 +1913,7 @@
     <t>что Мы сейчас придём через  минут десять.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Я тогда посмотрел на время-а</t>
+    <t xml:space="preserve"> Я тогда посмотрел на время</t>
   </si>
   <si>
     <t>и    увидел</t>
@@ -1925,7 +1925,7 @@
     <t xml:space="preserve">  Я-а бросился делать уроки</t>
   </si>
   <si>
-    <t xml:space="preserve"> н   но тут ээ раздался-а звонок в дверь.</t>
+    <t xml:space="preserve"> н   но тут ээ раздался звонок в дверь.</t>
   </si>
   <si>
     <t xml:space="preserve"> ээ Я посмотрел в глазок</t>
@@ -2090,7 +2090,7 @@
     <t>он дал</t>
   </si>
   <si>
-    <t xml:space="preserve"> и я-а подхожу:</t>
+    <t xml:space="preserve"> и я подхожу:</t>
   </si>
   <si>
     <t xml:space="preserve"> Чего вы тут спорите?</t>
@@ -2129,10 +2129,10 @@
     <t>сон</t>
   </si>
   <si>
-    <t>это когда я потеря-ался.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Вот я-а вышел из дома</t>
+    <t>это когда я потерялся.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вот я вышел из дома</t>
   </si>
   <si>
     <t xml:space="preserve">были </t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve"> никого не было.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Потом я-а испугался</t>
+    <t xml:space="preserve"> Потом я испугался</t>
   </si>
   <si>
     <t xml:space="preserve"> побежал вот куда глаз  глаза глядят</t>
